--- a/similarities/split_global/harmonic_similarity_timestamps_397.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_397.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,694 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'D']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:00.180884', '0:01:10.618253')]</t>
+          <t>('0:01:14.100000', '0:01:20.040000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=60.180884']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:00.660000', '0:00:03.280000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:49.340000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=49.34</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_63</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:dim7', 'F:min', 'G:dim7']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:19.460000', '0:01:29.810000')]</t>
+          <t>('0:00:00.380000', '0:00:07.840000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.480000', '0:00:27.820000')]</t>
+          <t>('0:03:56.400000', '0:04:02.100000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-63#t=79.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=20.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:01:47.900000', '0:01:49.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:01:06.100000', '0:01:24.780000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=107.9</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=66.1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_271</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'E:min', 'A:min/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['E', 'C#:min', 'F#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:17.900000', '0:00:24.560000')]</t>
+          <t>('0:00:07.580000', '0:00:15.620000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:00:07.755487', '0:00:19.945963')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=17.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=7.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=7.755487</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'B:7', 'E:maj/B'], ['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:40.400000', '0:01:48.820000'), ('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:07.700000', '0:00:12.060000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:38.060000', '0:01:45.600000'), ('0:02:14.220000', '0:02:19.560000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=100.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=98.06', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=134.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:27.246961')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>isophonics_76</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>isophonics_208</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['C', 'G', 'D/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C', 'G', 'D']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
+          <t>('0:00:09.336000', '0:00:13.342000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:25.300000')]</t>
+          <t>('0:02:49.152131', '0:02:57.917664')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-208#t=169.152131</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'D'], ['G', 'C', 'G/3']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:58.620000', '0:01:05.560000'), ('0:00:55.180000', '0:01:02.060000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:37.239569', '0:00:40.954761'), ('0:00:14.628775', '0:00:26.430680')]</t>
+          <t>('0:00:23.300000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=58.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=37.239569', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=14.628775']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:33.698526', '0:00:42.916848')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=33.698526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['B', 'F#', 'B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.020000', '0:01:11.860000')]</t>
+          <t>('0:02:31.259637', '0:02:37.900544')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.780000', '0:00:31.740000')]</t>
+          <t>('0:00:09.540000', '0:00:12.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=62.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=151.259637</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D', 'G', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:09.840000')]</t>
+          <t>('0:00:11.337709', '0:00:19.847823')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.590000', '0:00:14.680000')]</t>
+          <t>('0:00:05.776000', '0:00:09.009000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=11.337709</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=5.776</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=20.432']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+          <t>('0:01:01.683832', '0:01:05.956303')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Ab']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B', 'E', 'A']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.702000', '0:00:15.006000')]</t>
+          <t>('0:01:58.180000', '0:02:03.040000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.459543', '0:00:16.179070')]</t>
+          <t>('0:00:00.660000', '0:00:02.680000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.702']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=0.459543']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
